--- a/dotnet与csharp/停电计划.xlsx
+++ b/dotnet与csharp/停电计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13695" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,14 +772,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,42 +792,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,45 +811,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -886,15 +820,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,7 +866,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -931,11 +909,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -948,31 +942,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,151 +1074,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,21 +1133,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1168,30 +1147,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1220,6 +1175,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1227,6 +1197,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,156 +1238,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1743,37 +1743,41 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="25" max="25" width="19.5" customWidth="1"/>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="2"/>
+    <col min="10" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="11.5" style="1" customWidth="1"/>
+    <col min="15" max="19" width="9" style="1"/>
+    <col min="20" max="24" width="9" style="3"/>
+    <col min="25" max="25" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1782,129 +1786,129 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:26">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>42813.777037037</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>42813.7770383912</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>200</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="T2" s="3">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z2">
@@ -1912,79 +1916,79 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>42814.777037037</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>42814.7770383912</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>400</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z3">
@@ -1992,79 +1996,79 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>42815.777037037</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>42815.7770383912</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>600</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z4">
@@ -2072,79 +2076,79 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>42816.777037037</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>42816.7770383912</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>800</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z5">
@@ -2152,79 +2156,79 @@
       </c>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>42817.777037037</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>42817.7770383912</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>1000</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="s">
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>1</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z6">
@@ -2232,79 +2236,79 @@
       </c>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>42818.777037037</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>42818.7770383912</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>1200</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="s">
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z7">
@@ -2312,79 +2316,79 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>42819.777037037</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>42819.7770383912</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>1400</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z8">
@@ -2392,79 +2396,79 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>42820.777037037</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>42820.7770383912</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>1600</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z9">
@@ -2472,79 +2476,79 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>42821.777037037</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>42821.7770383912</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>1800</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z10">
@@ -2552,79 +2556,79 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>42822.777037037</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>42822.7770383912</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>2000</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z11">
@@ -2632,79 +2636,79 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>42823.777037037</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>42823.7770383912</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>2200</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12" t="s">
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z12">
@@ -2712,79 +2716,79 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>42824.777037037</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>42824.7770383912</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>2400</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O13" t="s">
+      <c r="O13" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
-      <c r="Y13" t="s">
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="3">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <v>1</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z13">
@@ -2792,79 +2796,79 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>42825.777037037</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>42825.7770383912</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>2600</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="O14" t="s">
+      <c r="O14" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
-      <c r="Y14" t="s">
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z14">
@@ -2872,79 +2876,79 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>42826.777037037</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>42826.7770383912</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>2800</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O15" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15" t="s">
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z15">

--- a/dotnet与csharp/停电计划.xlsx
+++ b/dotnet与csharp/停电计划.xlsx
@@ -144,7 +144,7 @@
     <t>备注说明，字要多一点</t>
   </si>
   <si>
-    <t>名称2</t>
+    <t>地方</t>
   </si>
   <si>
     <t>工作内容2</t>
@@ -240,7 +240,7 @@
     <t>验收层级3</t>
   </si>
   <si>
-    <t>名称4</t>
+    <t>是的发送到</t>
   </si>
   <si>
     <t>工作内容4</t>
@@ -288,7 +288,7 @@
     <t>验收层级4</t>
   </si>
   <si>
-    <t>名称5</t>
+    <t>温柔</t>
   </si>
   <si>
     <t>工作内容5</t>
@@ -432,7 +432,7 @@
     <t>验收层级7</t>
   </si>
   <si>
-    <t>名称8</t>
+    <t>他好</t>
   </si>
   <si>
     <t>工作内容8</t>
@@ -480,7 +480,7 @@
     <t>验收层级8</t>
   </si>
   <si>
-    <t>名称9</t>
+    <t>复古范儿</t>
   </si>
   <si>
     <t>工作内容9</t>
@@ -528,7 +528,7 @@
     <t>验收层级9</t>
   </si>
   <si>
-    <t>名称10</t>
+    <t>而他的风格</t>
   </si>
   <si>
     <t>工作内容10</t>
@@ -576,7 +576,7 @@
     <t>验收层级10</t>
   </si>
   <si>
-    <t>名称11</t>
+    <t>的非官方的</t>
   </si>
   <si>
     <t>工作内容11</t>
@@ -624,7 +624,7 @@
     <t>验收层级11</t>
   </si>
   <si>
-    <t>名称12</t>
+    <t>43研究院</t>
   </si>
   <si>
     <t>工作内容12</t>
@@ -672,7 +672,7 @@
     <t>验收层级12</t>
   </si>
   <si>
-    <t>名称13</t>
+    <t>预计交易</t>
   </si>
   <si>
     <t>工作内容13</t>
@@ -720,7 +720,7 @@
     <t>验收层级13</t>
   </si>
   <si>
-    <t>名称14</t>
+    <t>已接近</t>
   </si>
   <si>
     <t>工作内容14</t>
@@ -773,12 +773,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -789,23 +789,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,9 +804,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,15 +834,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,38 +862,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,7 +879,31 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,9 +917,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -942,13 +942,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,169 +1092,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,32 +1136,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,17 +1169,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1216,11 +1184,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1233,6 +1222,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1241,10 +1241,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1253,133 +1253,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1390,10 +1390,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1743,7 +1743,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
